--- a/doc/02_画面遷移図_F4.xlsx
+++ b/doc/02_画面遷移図_F4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2B4125-37C5-4B1A-91FF-4124083FB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C747E-7F55-4665-ABE8-8D83977FE75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,22 +224,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>46463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292518</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243932</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B335CF-D586-1D7D-D18B-EE6D3B7449BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CB5541-3BE0-5993-DCCB-42D63A6968BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -255,8 +255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="1371600"/>
-          <a:ext cx="6912393" cy="4152900"/>
+          <a:off x="0" y="1359054"/>
+          <a:ext cx="7678078" cy="4832196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
